--- a/data/DATA_EXPORT_DB/RegionSpr.xlsx
+++ b/data/DATA_EXPORT_DB/RegionSpr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/DEV/django-rdcapp/data/DATA_EXPORT_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE7955-047B-BE4B-884A-853BA926BAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68338F9C-DAAE-FA46-8BF4-A48244635520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81500" yWindow="15000" windowWidth="20780" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MunicipalitySpr" sheetId="1" r:id="rId1"/>
@@ -685,9 +685,6 @@
     <t>г.Самара</t>
   </si>
   <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
     <t>RU-SPE</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>г.Екатеринбург</t>
   </si>
   <si>
-    <t>Севастополь</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -899,6 +893,12 @@
   </si>
   <si>
     <t>Федеральный офис</t>
+  </si>
+  <si>
+    <t>Город федерального значения Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Город федерального значения Севастополь</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1400,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1765,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3448,7 +3447,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3932,7 +3931,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -3941,10 +3940,10 @@
         <v>78</v>
       </c>
       <c r="E68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" t="s">
         <v>210</v>
-      </c>
-      <c r="F68" t="s">
-        <v>211</v>
       </c>
       <c r="G68">
         <v>5600044</v>
@@ -3964,7 +3963,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3973,10 +3972,10 @@
         <v>64</v>
       </c>
       <c r="E69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" t="s">
         <v>213</v>
-      </c>
-      <c r="F69" t="s">
-        <v>214</v>
       </c>
       <c r="G69">
         <v>2404944</v>
@@ -3996,7 +3995,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4005,10 +4004,10 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" t="s">
         <v>216</v>
-      </c>
-      <c r="F70" t="s">
-        <v>217</v>
       </c>
       <c r="G70">
         <v>997565</v>
@@ -4028,7 +4027,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4037,10 +4036,10 @@
         <v>65</v>
       </c>
       <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" t="s">
         <v>219</v>
-      </c>
-      <c r="F71" t="s">
-        <v>220</v>
       </c>
       <c r="G71">
         <v>460535</v>
@@ -4060,7 +4059,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -4069,10 +4068,10 @@
         <v>66</v>
       </c>
       <c r="E72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" t="s">
         <v>222</v>
-      </c>
-      <c r="F72" t="s">
-        <v>223</v>
       </c>
       <c r="G72">
         <v>4239161</v>
@@ -4092,7 +4091,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -4101,10 +4100,10 @@
         <v>92</v>
       </c>
       <c r="E73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G73">
         <v>558273</v>
@@ -4124,7 +4123,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -4133,10 +4132,10 @@
         <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G74">
         <v>873041</v>
@@ -4156,7 +4155,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -4165,10 +4164,10 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G75">
         <v>550260</v>
@@ -4188,7 +4187,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -4197,10 +4196,10 @@
         <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G76">
         <v>966250</v>
@@ -4220,7 +4219,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -4229,10 +4228,10 @@
         <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G77">
         <v>1211183</v>
@@ -4252,7 +4251,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -4261,10 +4260,10 @@
         <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G78">
         <v>1052106</v>
@@ -4293,10 +4292,10 @@
         <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G79">
         <v>1481471</v>
@@ -4316,7 +4315,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -4325,10 +4324,10 @@
         <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G80">
         <v>1608494</v>
@@ -4348,7 +4347,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4357,10 +4356,10 @@
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G81">
         <v>1442251</v>
@@ -4380,7 +4379,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -4389,10 +4388,10 @@
         <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G82">
         <v>1181006</v>
@@ -4412,7 +4411,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4421,10 +4420,10 @@
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G83">
         <v>1284090</v>
@@ -4444,7 +4443,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -4453,10 +4452,10 @@
         <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G84">
         <v>1730353</v>
@@ -4476,7 +4475,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -4485,10 +4484,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4508,7 +4507,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -4517,10 +4516,10 @@
         <v>74</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G86">
         <v>3407145</v>
@@ -4540,7 +4539,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -4549,10 +4548,10 @@
         <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G87">
         <v>1533209</v>
@@ -4572,7 +4571,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4581,10 +4580,10 @@
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G88">
         <v>1173177</v>
@@ -4604,7 +4603,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4613,10 +4612,10 @@
         <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G89">
         <v>47840</v>
@@ -4636,7 +4635,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -4645,10 +4644,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G90">
         <v>512387</v>
@@ -4668,7 +4667,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -4677,10 +4676,10 @@
         <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G91">
         <v>1194605</v>
@@ -4700,7 +4699,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
